--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Slpi-Plscr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Slpi-Plscr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,18 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Slpi</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9021050496919</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H2">
-        <v>0.9021050496919</v>
+        <v>3.091003</v>
       </c>
       <c r="I2">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="J2">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.45126607631716</v>
+        <v>4.359326333333334</v>
       </c>
       <c r="N2">
-        <v>3.45126607631716</v>
+        <v>13.077979</v>
       </c>
       <c r="O2">
-        <v>0.1279838779304742</v>
+        <v>0.1512713557777758</v>
       </c>
       <c r="P2">
-        <v>0.1279838779304742</v>
+        <v>0.1512713557777758</v>
       </c>
       <c r="Q2">
-        <v>3.11340455527606</v>
+        <v>4.491563591437445</v>
       </c>
       <c r="R2">
-        <v>3.11340455527606</v>
+        <v>40.42407232293701</v>
       </c>
       <c r="S2">
-        <v>0.001654708208761036</v>
+        <v>0.001972283505290279</v>
       </c>
       <c r="T2">
-        <v>0.001654708208761036</v>
+        <v>0.001972283505290279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9021050496919</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H3">
-        <v>0.9021050496919</v>
+        <v>3.091003</v>
       </c>
       <c r="I3">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="J3">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.27076977969988</v>
+        <v>6.323439666666666</v>
       </c>
       <c r="N3">
-        <v>6.27076977969988</v>
+        <v>18.970319</v>
       </c>
       <c r="O3">
-        <v>0.2325400059770597</v>
+        <v>0.2194273193638634</v>
       </c>
       <c r="P3">
-        <v>0.2325400059770597</v>
+        <v>0.2194273193638635</v>
       </c>
       <c r="Q3">
-        <v>5.656893083722625</v>
+        <v>6.515256993328556</v>
       </c>
       <c r="R3">
-        <v>5.656893083722625</v>
+        <v>58.63731293995701</v>
       </c>
       <c r="S3">
-        <v>0.003006518187897165</v>
+        <v>0.002860904368618024</v>
       </c>
       <c r="T3">
-        <v>0.003006518187897165</v>
+        <v>0.002860904368618024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9021050496919</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H4">
-        <v>0.9021050496919</v>
+        <v>3.091003</v>
       </c>
       <c r="I4">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="J4">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.84188570901009</v>
+        <v>3.159533666666667</v>
       </c>
       <c r="N4">
-        <v>2.84188570901009</v>
+        <v>9.478601000000001</v>
       </c>
       <c r="O4">
-        <v>0.1053861237098319</v>
+        <v>0.1096377983285171</v>
       </c>
       <c r="P4">
-        <v>0.1053861237098319</v>
+        <v>0.1096377983285171</v>
       </c>
       <c r="Q4">
-        <v>2.563679448745248</v>
+        <v>3.255376014089223</v>
       </c>
       <c r="R4">
-        <v>2.563679448745248</v>
+        <v>29.298384126803</v>
       </c>
       <c r="S4">
-        <v>0.001362541023228697</v>
+        <v>0.00142946310018757</v>
       </c>
       <c r="T4">
-        <v>0.001362541023228697</v>
+        <v>0.001429463100187571</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9021050496919</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H5">
-        <v>0.9021050496919</v>
+        <v>3.091003</v>
       </c>
       <c r="I5">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="J5">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.92794473122232</v>
+        <v>4.990126333333333</v>
       </c>
       <c r="N5">
-        <v>4.92794473122232</v>
+        <v>14.970379</v>
       </c>
       <c r="O5">
-        <v>0.1827437998063299</v>
+        <v>0.1731605111032173</v>
       </c>
       <c r="P5">
-        <v>0.1827437998063299</v>
+        <v>0.1731605111032174</v>
       </c>
       <c r="Q5">
-        <v>4.445523826638248</v>
+        <v>5.141498488904112</v>
       </c>
       <c r="R5">
-        <v>4.445523826638248</v>
+        <v>46.273486400137</v>
       </c>
       <c r="S5">
-        <v>0.002362701228696838</v>
+        <v>0.002257675407617949</v>
       </c>
       <c r="T5">
-        <v>0.002362701228696838</v>
+        <v>0.00225767540761795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9021050496919</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H6">
-        <v>0.9021050496919</v>
+        <v>3.091003</v>
       </c>
       <c r="I6">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="J6">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.38763164343092</v>
+        <v>8.881924</v>
       </c>
       <c r="N6">
-        <v>8.38763164343092</v>
+        <v>26.645772</v>
       </c>
       <c r="O6">
-        <v>0.3110399490044985</v>
+        <v>0.3082083291451604</v>
       </c>
       <c r="P6">
-        <v>0.3110399490044985</v>
+        <v>0.3082083291451604</v>
       </c>
       <c r="Q6">
-        <v>7.566524860494603</v>
+        <v>9.151351243257334</v>
       </c>
       <c r="R6">
-        <v>7.566524860494603</v>
+        <v>82.36216118931601</v>
       </c>
       <c r="S6">
-        <v>0.00402144680402599</v>
+        <v>0.004018435616185465</v>
       </c>
       <c r="T6">
-        <v>0.00402144680402599</v>
+        <v>0.004018435616185465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9021050496919</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H7">
-        <v>0.9021050496919</v>
+        <v>3.091003</v>
       </c>
       <c r="I7">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="J7">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.08691480014943</v>
+        <v>1.103573333333333</v>
       </c>
       <c r="N7">
-        <v>1.08691480014943</v>
+        <v>3.31072</v>
       </c>
       <c r="O7">
-        <v>0.04030624357180591</v>
+        <v>0.0382946862814658</v>
       </c>
       <c r="P7">
-        <v>0.04030624357180591</v>
+        <v>0.0382946862814658</v>
       </c>
       <c r="Q7">
-        <v>0.980511329799663</v>
+        <v>1.137049494684444</v>
       </c>
       <c r="R7">
-        <v>0.980511329799663</v>
+        <v>10.23344545216</v>
       </c>
       <c r="S7">
-        <v>0.0005211208878888664</v>
+        <v>0.0004992880357610783</v>
       </c>
       <c r="T7">
-        <v>0.0005211208878888664</v>
+        <v>0.0004992880357610784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>68.87146708160211</v>
+        <v>5.860603</v>
       </c>
       <c r="H8">
-        <v>68.87146708160211</v>
+        <v>17.581809</v>
       </c>
       <c r="I8">
-        <v>0.9870709636595014</v>
+        <v>0.07416120444537262</v>
       </c>
       <c r="J8">
-        <v>0.9870709636595014</v>
+        <v>0.07416120444537262</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.45126607631716</v>
+        <v>4.359326333333334</v>
       </c>
       <c r="N8">
-        <v>3.45126607631716</v>
+        <v>13.077979</v>
       </c>
       <c r="O8">
-        <v>0.1279838779304742</v>
+        <v>0.1512713557777758</v>
       </c>
       <c r="P8">
-        <v>0.1279838779304742</v>
+        <v>0.1512713557777758</v>
       </c>
       <c r="Q8">
-        <v>237.6937579649274</v>
+        <v>25.54828098711234</v>
       </c>
       <c r="R8">
-        <v>237.6937579649274</v>
+        <v>229.934528884011</v>
       </c>
       <c r="S8">
-        <v>0.1263291697217131</v>
+        <v>0.01121846594256433</v>
       </c>
       <c r="T8">
-        <v>0.1263291697217131</v>
+        <v>0.01121846594256433</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>68.87146708160211</v>
+        <v>5.860603</v>
       </c>
       <c r="H9">
-        <v>68.87146708160211</v>
+        <v>17.581809</v>
       </c>
       <c r="I9">
-        <v>0.9870709636595014</v>
+        <v>0.07416120444537262</v>
       </c>
       <c r="J9">
-        <v>0.9870709636595014</v>
+        <v>0.07416120444537262</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.27076977969988</v>
+        <v>6.323439666666666</v>
       </c>
       <c r="N9">
-        <v>6.27076977969988</v>
+        <v>18.970319</v>
       </c>
       <c r="O9">
-        <v>0.2325400059770597</v>
+        <v>0.2194273193638634</v>
       </c>
       <c r="P9">
-        <v>0.2325400059770597</v>
+        <v>0.2194273193638635</v>
       </c>
       <c r="Q9">
-        <v>431.8771144589056</v>
+        <v>37.05916948078567</v>
       </c>
       <c r="R9">
-        <v>431.8771144589056</v>
+        <v>333.532525327071</v>
       </c>
       <c r="S9">
-        <v>0.2295334877891625</v>
+        <v>0.01627299429224355</v>
       </c>
       <c r="T9">
-        <v>0.2295334877891625</v>
+        <v>0.01627299429224355</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>68.87146708160211</v>
+        <v>5.860603</v>
       </c>
       <c r="H10">
-        <v>68.87146708160211</v>
+        <v>17.581809</v>
       </c>
       <c r="I10">
-        <v>0.9870709636595014</v>
+        <v>0.07416120444537262</v>
       </c>
       <c r="J10">
-        <v>0.9870709636595014</v>
+        <v>0.07416120444537262</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.84188570901009</v>
+        <v>3.159533666666667</v>
       </c>
       <c r="N10">
-        <v>2.84188570901009</v>
+        <v>9.478601000000001</v>
       </c>
       <c r="O10">
-        <v>0.1053861237098319</v>
+        <v>0.1096377983285171</v>
       </c>
       <c r="P10">
-        <v>0.1053861237098319</v>
+        <v>0.1096377983285171</v>
       </c>
       <c r="Q10">
-        <v>195.7248380577639</v>
+        <v>18.51677248546767</v>
       </c>
       <c r="R10">
-        <v>195.7248380577639</v>
+        <v>166.650952369209</v>
       </c>
       <c r="S10">
-        <v>0.1040235826866032</v>
+        <v>0.008130871176781688</v>
       </c>
       <c r="T10">
-        <v>0.1040235826866032</v>
+        <v>0.008130871176781688</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>68.87146708160211</v>
+        <v>5.860603</v>
       </c>
       <c r="H11">
-        <v>68.87146708160211</v>
+        <v>17.581809</v>
       </c>
       <c r="I11">
-        <v>0.9870709636595014</v>
+        <v>0.07416120444537262</v>
       </c>
       <c r="J11">
-        <v>0.9870709636595014</v>
+        <v>0.07416120444537262</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.92794473122232</v>
+        <v>4.990126333333333</v>
       </c>
       <c r="N11">
-        <v>4.92794473122232</v>
+        <v>14.970379</v>
       </c>
       <c r="O11">
-        <v>0.1827437998063299</v>
+        <v>0.1731605111032173</v>
       </c>
       <c r="P11">
-        <v>0.1827437998063299</v>
+        <v>0.1731605111032174</v>
       </c>
       <c r="Q11">
-        <v>339.3947833363326</v>
+        <v>29.24514935951234</v>
       </c>
       <c r="R11">
-        <v>339.3947833363326</v>
+        <v>263.206344235611</v>
       </c>
       <c r="S11">
-        <v>0.180381098577633</v>
+        <v>0.01284179206579092</v>
       </c>
       <c r="T11">
-        <v>0.180381098577633</v>
+        <v>0.01284179206579092</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>68.87146708160211</v>
+        <v>5.860603</v>
       </c>
       <c r="H12">
-        <v>68.87146708160211</v>
+        <v>17.581809</v>
       </c>
       <c r="I12">
-        <v>0.9870709636595014</v>
+        <v>0.07416120444537262</v>
       </c>
       <c r="J12">
-        <v>0.9870709636595014</v>
+        <v>0.07416120444537262</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.38763164343092</v>
+        <v>8.881924</v>
       </c>
       <c r="N12">
-        <v>8.38763164343092</v>
+        <v>26.645772</v>
       </c>
       <c r="O12">
-        <v>0.3110399490044985</v>
+        <v>0.3082083291451604</v>
       </c>
       <c r="P12">
-        <v>0.3110399490044985</v>
+        <v>0.3082083291451604</v>
       </c>
       <c r="Q12">
-        <v>577.6684966231568</v>
+        <v>52.053430440172</v>
       </c>
       <c r="R12">
-        <v>577.6684966231568</v>
+        <v>468.480873961548</v>
       </c>
       <c r="S12">
-        <v>0.3070185022004725</v>
+        <v>0.02285710090950094</v>
       </c>
       <c r="T12">
-        <v>0.3070185022004725</v>
+        <v>0.02285710090950094</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>5.860603</v>
+      </c>
+      <c r="H13">
+        <v>17.581809</v>
+      </c>
+      <c r="I13">
+        <v>0.07416120444537262</v>
+      </c>
+      <c r="J13">
+        <v>0.07416120444537262</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.103573333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.31072</v>
+      </c>
+      <c r="O13">
+        <v>0.0382946862814658</v>
+      </c>
+      <c r="P13">
+        <v>0.0382946862814658</v>
+      </c>
+      <c r="Q13">
+        <v>6.467605188053334</v>
+      </c>
+      <c r="R13">
+        <v>58.20844669248</v>
+      </c>
+      <c r="S13">
+        <v>0.002839980058491191</v>
+      </c>
+      <c r="T13">
+        <v>0.002839980058491192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.125222666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.375668</v>
+      </c>
+      <c r="I14">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="J14">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.359326333333334</v>
+      </c>
+      <c r="N14">
+        <v>13.077979</v>
+      </c>
+      <c r="O14">
+        <v>0.1512713557777758</v>
+      </c>
+      <c r="P14">
+        <v>0.1512713557777758</v>
+      </c>
+      <c r="Q14">
+        <v>4.905212801663556</v>
+      </c>
+      <c r="R14">
+        <v>44.146915214972</v>
+      </c>
+      <c r="S14">
+        <v>0.002153920366863515</v>
+      </c>
+      <c r="T14">
+        <v>0.002153920366863515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.125222666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.375668</v>
+      </c>
+      <c r="I15">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="J15">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.323439666666666</v>
+      </c>
+      <c r="N15">
+        <v>18.970319</v>
+      </c>
+      <c r="O15">
+        <v>0.2194273193638634</v>
+      </c>
+      <c r="P15">
+        <v>0.2194273193638635</v>
+      </c>
+      <c r="Q15">
+        <v>7.115277644232444</v>
+      </c>
+      <c r="R15">
+        <v>64.037498798092</v>
+      </c>
+      <c r="S15">
+        <v>0.003124378503742658</v>
+      </c>
+      <c r="T15">
+        <v>0.003124378503742658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.125222666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.375668</v>
+      </c>
+      <c r="I16">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="J16">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.159533666666667</v>
+      </c>
+      <c r="N16">
+        <v>9.478601000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.1096377983285171</v>
+      </c>
+      <c r="P16">
+        <v>0.1096377983285171</v>
+      </c>
+      <c r="Q16">
+        <v>3.555178897829778</v>
+      </c>
+      <c r="R16">
+        <v>31.99661008046801</v>
+      </c>
+      <c r="S16">
+        <v>0.001561109078342524</v>
+      </c>
+      <c r="T16">
+        <v>0.001561109078342524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.125222666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.375668</v>
+      </c>
+      <c r="I17">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="J17">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.990126333333333</v>
+      </c>
+      <c r="N17">
+        <v>14.970379</v>
+      </c>
+      <c r="O17">
+        <v>0.1731605111032173</v>
+      </c>
+      <c r="P17">
+        <v>0.1731605111032174</v>
+      </c>
+      <c r="Q17">
+        <v>5.61500325979689</v>
+      </c>
+      <c r="R17">
+        <v>50.53502933817201</v>
+      </c>
+      <c r="S17">
+        <v>0.002465595351373928</v>
+      </c>
+      <c r="T17">
+        <v>0.002465595351373929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.125222666666667</v>
+      </c>
+      <c r="H18">
+        <v>3.375668</v>
+      </c>
+      <c r="I18">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="J18">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.881924</v>
+      </c>
+      <c r="N18">
+        <v>26.645772</v>
+      </c>
+      <c r="O18">
+        <v>0.3082083291451604</v>
+      </c>
+      <c r="P18">
+        <v>0.3082083291451604</v>
+      </c>
+      <c r="Q18">
+        <v>9.994142208410667</v>
+      </c>
+      <c r="R18">
+        <v>89.94727987569601</v>
+      </c>
+      <c r="S18">
+        <v>0.004388512246548306</v>
+      </c>
+      <c r="T18">
+        <v>0.004388512246548306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.125222666666667</v>
+      </c>
+      <c r="H19">
+        <v>3.375668</v>
+      </c>
+      <c r="I19">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="J19">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.103573333333333</v>
+      </c>
+      <c r="N19">
+        <v>3.31072</v>
+      </c>
+      <c r="O19">
+        <v>0.0382946862814658</v>
+      </c>
+      <c r="P19">
+        <v>0.0382946862814658</v>
+      </c>
+      <c r="Q19">
+        <v>1.241765728995555</v>
+      </c>
+      <c r="R19">
+        <v>11.17589156096</v>
+      </c>
+      <c r="S19">
+        <v>0.0005452698185998291</v>
+      </c>
+      <c r="T19">
+        <v>0.0005452698185998292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>68.87146708160211</v>
-      </c>
-      <c r="H13">
-        <v>68.87146708160211</v>
-      </c>
-      <c r="I13">
-        <v>0.9870709636595014</v>
-      </c>
-      <c r="J13">
-        <v>0.9870709636595014</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.08691480014943</v>
-      </c>
-      <c r="N13">
-        <v>1.08691480014943</v>
-      </c>
-      <c r="O13">
-        <v>0.04030624357180591</v>
-      </c>
-      <c r="P13">
-        <v>0.04030624357180591</v>
-      </c>
-      <c r="Q13">
-        <v>74.8574168789976</v>
-      </c>
-      <c r="R13">
-        <v>74.8574168789976</v>
-      </c>
-      <c r="S13">
-        <v>0.03978512268391705</v>
-      </c>
-      <c r="T13">
-        <v>0.03978512268391705</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>70.93018333333333</v>
+      </c>
+      <c r="H20">
+        <v>212.79055</v>
+      </c>
+      <c r="I20">
+        <v>0.897564265576613</v>
+      </c>
+      <c r="J20">
+        <v>0.8975642655766131</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.359326333333334</v>
+      </c>
+      <c r="N20">
+        <v>13.077979</v>
+      </c>
+      <c r="O20">
+        <v>0.1512713557777758</v>
+      </c>
+      <c r="P20">
+        <v>0.1512713557777758</v>
+      </c>
+      <c r="Q20">
+        <v>309.2078160331611</v>
+      </c>
+      <c r="R20">
+        <v>2782.87034429845</v>
+      </c>
+      <c r="S20">
+        <v>0.1357757633514579</v>
+      </c>
+      <c r="T20">
+        <v>0.1357757633514579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>70.93018333333333</v>
+      </c>
+      <c r="H21">
+        <v>212.79055</v>
+      </c>
+      <c r="I21">
+        <v>0.897564265576613</v>
+      </c>
+      <c r="J21">
+        <v>0.8975642655766131</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.323439666666666</v>
+      </c>
+      <c r="N21">
+        <v>18.970319</v>
+      </c>
+      <c r="O21">
+        <v>0.2194273193638634</v>
+      </c>
+      <c r="P21">
+        <v>0.2194273193638635</v>
+      </c>
+      <c r="Q21">
+        <v>448.5227348539389</v>
+      </c>
+      <c r="R21">
+        <v>4036.70461368545</v>
+      </c>
+      <c r="S21">
+        <v>0.196950120752271</v>
+      </c>
+      <c r="T21">
+        <v>0.1969501207522711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>70.93018333333333</v>
+      </c>
+      <c r="H22">
+        <v>212.79055</v>
+      </c>
+      <c r="I22">
+        <v>0.897564265576613</v>
+      </c>
+      <c r="J22">
+        <v>0.8975642655766131</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.159533666666667</v>
+      </c>
+      <c r="N22">
+        <v>9.478601000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.1096377983285171</v>
+      </c>
+      <c r="P22">
+        <v>0.1096377983285171</v>
+      </c>
+      <c r="Q22">
+        <v>224.1063022245056</v>
+      </c>
+      <c r="R22">
+        <v>2016.95672002055</v>
+      </c>
+      <c r="S22">
+        <v>0.09840696993617222</v>
+      </c>
+      <c r="T22">
+        <v>0.09840696993617225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>70.93018333333333</v>
+      </c>
+      <c r="H23">
+        <v>212.79055</v>
+      </c>
+      <c r="I23">
+        <v>0.897564265576613</v>
+      </c>
+      <c r="J23">
+        <v>0.8975642655766131</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.990126333333333</v>
+      </c>
+      <c r="N23">
+        <v>14.970379</v>
+      </c>
+      <c r="O23">
+        <v>0.1731605111032173</v>
+      </c>
+      <c r="P23">
+        <v>0.1731605111032174</v>
+      </c>
+      <c r="Q23">
+        <v>353.9505756798278</v>
+      </c>
+      <c r="R23">
+        <v>3185.55518111845</v>
+      </c>
+      <c r="S23">
+        <v>0.1554226869752302</v>
+      </c>
+      <c r="T23">
+        <v>0.1554226869752303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>70.93018333333333</v>
+      </c>
+      <c r="H24">
+        <v>212.79055</v>
+      </c>
+      <c r="I24">
+        <v>0.897564265576613</v>
+      </c>
+      <c r="J24">
+        <v>0.8975642655766131</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>8.881924</v>
+      </c>
+      <c r="N24">
+        <v>26.645772</v>
+      </c>
+      <c r="O24">
+        <v>0.3082083291451604</v>
+      </c>
+      <c r="P24">
+        <v>0.3082083291451604</v>
+      </c>
+      <c r="Q24">
+        <v>629.9964976727333</v>
+      </c>
+      <c r="R24">
+        <v>5669.9684790546</v>
+      </c>
+      <c r="S24">
+        <v>0.2766367825937709</v>
+      </c>
+      <c r="T24">
+        <v>0.2766367825937709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>70.93018333333333</v>
+      </c>
+      <c r="H25">
+        <v>212.79055</v>
+      </c>
+      <c r="I25">
+        <v>0.897564265576613</v>
+      </c>
+      <c r="J25">
+        <v>0.8975642655766131</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.103573333333333</v>
+      </c>
+      <c r="N25">
+        <v>3.31072</v>
+      </c>
+      <c r="O25">
+        <v>0.0382946862814658</v>
+      </c>
+      <c r="P25">
+        <v>0.0382946862814658</v>
+      </c>
+      <c r="Q25">
+        <v>78.27665885511111</v>
+      </c>
+      <c r="R25">
+        <v>704.489929696</v>
+      </c>
+      <c r="S25">
+        <v>0.03437194196771064</v>
+      </c>
+      <c r="T25">
+        <v>0.03437194196771065</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.078843</v>
+      </c>
+      <c r="H26">
+        <v>0.236529</v>
+      </c>
+      <c r="I26">
+        <v>0.000997694578883182</v>
+      </c>
+      <c r="J26">
+        <v>0.0009976945788831822</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.359326333333334</v>
+      </c>
+      <c r="N26">
+        <v>13.077979</v>
+      </c>
+      <c r="O26">
+        <v>0.1512713557777758</v>
+      </c>
+      <c r="P26">
+        <v>0.1512713557777758</v>
+      </c>
+      <c r="Q26">
+        <v>0.343702366099</v>
+      </c>
+      <c r="R26">
+        <v>3.093321294891</v>
+      </c>
+      <c r="S26">
+        <v>0.000150922611599796</v>
+      </c>
+      <c r="T26">
+        <v>0.0001509226115997961</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.078843</v>
+      </c>
+      <c r="H27">
+        <v>0.236529</v>
+      </c>
+      <c r="I27">
+        <v>0.000997694578883182</v>
+      </c>
+      <c r="J27">
+        <v>0.0009976945788831822</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>6.323439666666666</v>
+      </c>
+      <c r="N27">
+        <v>18.970319</v>
+      </c>
+      <c r="O27">
+        <v>0.2194273193638634</v>
+      </c>
+      <c r="P27">
+        <v>0.2194273193638635</v>
+      </c>
+      <c r="Q27">
+        <v>0.4985589536389999</v>
+      </c>
+      <c r="R27">
+        <v>4.487030582751</v>
+      </c>
+      <c r="S27">
+        <v>0.0002189214469881952</v>
+      </c>
+      <c r="T27">
+        <v>0.0002189214469881953</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.078843</v>
+      </c>
+      <c r="H28">
+        <v>0.236529</v>
+      </c>
+      <c r="I28">
+        <v>0.000997694578883182</v>
+      </c>
+      <c r="J28">
+        <v>0.0009976945788831822</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.159533666666667</v>
+      </c>
+      <c r="N28">
+        <v>9.478601000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.1096377983285171</v>
+      </c>
+      <c r="P28">
+        <v>0.1096377983285171</v>
+      </c>
+      <c r="Q28">
+        <v>0.249107112881</v>
+      </c>
+      <c r="R28">
+        <v>2.241964015929</v>
+      </c>
+      <c r="S28">
+        <v>0.0001093850370330491</v>
+      </c>
+      <c r="T28">
+        <v>0.0001093850370330491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.078843</v>
+      </c>
+      <c r="H29">
+        <v>0.236529</v>
+      </c>
+      <c r="I29">
+        <v>0.000997694578883182</v>
+      </c>
+      <c r="J29">
+        <v>0.0009976945788831822</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>4.990126333333333</v>
+      </c>
+      <c r="N29">
+        <v>14.970379</v>
+      </c>
+      <c r="O29">
+        <v>0.1731605111032173</v>
+      </c>
+      <c r="P29">
+        <v>0.1731605111032174</v>
+      </c>
+      <c r="Q29">
+        <v>0.393436530499</v>
+      </c>
+      <c r="R29">
+        <v>3.540928774491</v>
+      </c>
+      <c r="S29">
+        <v>0.000172761303204321</v>
+      </c>
+      <c r="T29">
+        <v>0.0001727613032043211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.078843</v>
+      </c>
+      <c r="H30">
+        <v>0.236529</v>
+      </c>
+      <c r="I30">
+        <v>0.000997694578883182</v>
+      </c>
+      <c r="J30">
+        <v>0.0009976945788831822</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>8.881924</v>
+      </c>
+      <c r="N30">
+        <v>26.645772</v>
+      </c>
+      <c r="O30">
+        <v>0.3082083291451604</v>
+      </c>
+      <c r="P30">
+        <v>0.3082083291451604</v>
+      </c>
+      <c r="Q30">
+        <v>0.700277533932</v>
+      </c>
+      <c r="R30">
+        <v>6.302497805388</v>
+      </c>
+      <c r="S30">
+        <v>0.00030749777915477</v>
+      </c>
+      <c r="T30">
+        <v>0.0003074977791547701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.078843</v>
+      </c>
+      <c r="H31">
+        <v>0.236529</v>
+      </c>
+      <c r="I31">
+        <v>0.000997694578883182</v>
+      </c>
+      <c r="J31">
+        <v>0.0009976945788831822</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.103573333333333</v>
+      </c>
+      <c r="N31">
+        <v>3.31072</v>
+      </c>
+      <c r="O31">
+        <v>0.0382946862814658</v>
+      </c>
+      <c r="P31">
+        <v>0.0382946862814658</v>
+      </c>
+      <c r="Q31">
+        <v>0.08700903232</v>
+      </c>
+      <c r="R31">
+        <v>0.7830812908799999</v>
+      </c>
+      <c r="S31">
+        <v>3.820640090305058E-05</v>
+      </c>
+      <c r="T31">
+        <v>3.82064009030506E-05</v>
       </c>
     </row>
   </sheetData>
